--- a/NSAID/Lornoxicam_Drug_Resource_Mappings.xlsx
+++ b/NSAID/Lornoxicam_Drug_Resource_Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgong/Documents/Li thinkpad/CPIC/celecoxib/supplemental tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgong/Documents/Li thinkpad/CPIC/celecoxib/final/Implementation tables/Implementation tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11F051-EF6A-3043-B5A7-3C201101260B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D77001-9C0D-F74B-979E-EB423DAA0DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="520" windowWidth="25200" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4540" yWindow="460" windowWidth="25200" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lornoxicam" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Drug or Ingredient</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>PA165958395</t>
-  </si>
-  <si>
-    <t>C0055477</t>
   </si>
   <si>
     <t>DB06725</t>
@@ -616,7 +613,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,8 +649,8 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>14</v>
+      <c r="D2" s="8">
+        <v>20890</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -667,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -681,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
